--- a/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
+++ b/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smkilani\Documents\GitHub\G-2\PCB - MasterController\LVMasterController\Project Outputs for LVMasterController\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="8520"/>
   </bookViews>
@@ -655,20 +660,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="125.19921875" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -737,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -783,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -806,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -829,7 +836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -852,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -875,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -898,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -921,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -967,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -990,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1128,7 +1135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>

--- a/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
+++ b/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samer\Documents\GitHub\G-2\PCB - MasterController\LVMasterController\Project Outputs for LVMasterController\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17990" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="LVMasterControllerBOM" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>Description</t>
   </si>
@@ -655,20 +660,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="125.19921875" customWidth="1"/>
-    <col min="2" max="2" width="53.19921875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="53.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -714,7 +721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,9 +734,7 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3">
         <v>1</v>
       </c>
@@ -737,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -760,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -783,7 +788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -806,7 +811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -829,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -852,7 +857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -875,7 +880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -898,7 +903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -921,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -944,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -967,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -990,7 +995,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.65" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>

--- a/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
+++ b/PCB - MasterController/LVMasterController/Project Outputs for LVMasterController/LVMasterControllerBOM.xlsx
@@ -2,19 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samer\Documents\GitHub\G-2\PCB - MasterController\LVMasterController\Project Outputs for LVMasterController\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17990" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="LVMasterControllerBOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="105">
   <si>
     <t>Description</t>
   </si>
@@ -50,7 +45,7 @@
     <t>Capacitor (Semiconductor SIM Model)</t>
   </si>
   <si>
-    <t>AC1, AC2, C1, C2, C3, C4, C5, C7, C8, C9, C10, C11, C12, C13</t>
+    <t>AC1, AC2, C1, C2, C3, C4, C5, C7, C8, C9, C10, C11, C12, C13, C14</t>
   </si>
   <si>
     <t>1608[0603]</t>
@@ -131,7 +126,7 @@
     <t>IC3</t>
   </si>
   <si>
-    <t>TQFP100</t>
+    <t>100A_N</t>
   </si>
   <si>
     <t>ATMEGA2560AU</t>
@@ -212,7 +207,7 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2, R10, R_pu1</t>
+    <t>R1, R2, R10, R11, R12, R13, R14, R17, R_pu1</t>
   </si>
   <si>
     <t>J1-0603</t>
@@ -230,7 +225,7 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R4</t>
+    <t>R4, R15</t>
   </si>
   <si>
     <t>1M</t>
@@ -260,6 +255,12 @@
     <t>4k7</t>
   </si>
   <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>2k2</t>
+  </si>
+  <si>
     <t>RESET1</t>
   </si>
   <si>
@@ -299,6 +300,24 @@
     <t>CD4051BPW</t>
   </si>
   <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>SOP8</t>
+  </si>
+  <si>
+    <t>SN74LVC2G32DCTR</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>SOIC127P600X175-8N</t>
+  </si>
+  <si>
+    <t>93LC46B-I/SN</t>
+  </si>
+  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -309,12 +328,18 @@
   </si>
   <si>
     <t>CSTCE16M0V53-R0</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>CSTCR6M00G53-R0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,9 +466,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -471,14 +496,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -506,6 +548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,24 +717,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="112.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -715,13 +772,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +791,9 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
@@ -742,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -788,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -811,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -834,7 +893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -857,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -880,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -903,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -926,7 +985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -949,7 +1008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -972,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -995,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1012,13 +1071,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1041,7 +1100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1058,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1087,7 +1146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1110,7 +1169,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1133,7 +1192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1156,123 +1215,215 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>